--- a/outcome/appendix/data/Table S2.xlsx
+++ b/outcome/appendix/data/Table S2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t xml:space="preserve">disease</t>
   </si>
@@ -26,205 +26,199 @@
     <t xml:space="preserve">HAV</t>
   </si>
   <si>
-    <t xml:space="preserve">-3.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0654</t>
+    <t xml:space="preserve">-3.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0961</t>
   </si>
   <si>
     <t xml:space="preserve">HEV</t>
   </si>
   <si>
+    <t xml:space="preserve">-2.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typhoid and paratyphoid fever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AHC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dysentery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HFMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other infectious diarrhea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brucellosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue fever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HFRS</t>
+  </si>
+  <si>
     <t xml:space="preserve">-3.13</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Typhoid and paratyphoid fever</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AHC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dysentery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HFMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other infectious diarrhea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brucellosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dengue fever</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HFRS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1035</t>
+    <t xml:space="preserve">0.1058</t>
   </si>
   <si>
     <t xml:space="preserve">Japanese encephalitis</t>
   </si>
   <si>
-    <t xml:space="preserve">-4.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0111</t>
+    <t xml:space="preserve">-4.31</t>
   </si>
   <si>
     <t xml:space="preserve">Malaria</t>
   </si>
   <si>
-    <t xml:space="preserve">-4.64</t>
+    <t xml:space="preserve">-4.62</t>
   </si>
   <si>
     <t xml:space="preserve">Hydatidosis</t>
   </si>
   <si>
-    <t xml:space="preserve">-3.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1326</t>
+    <t xml:space="preserve">-3.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146</t>
   </si>
   <si>
     <t xml:space="preserve">Typhus</t>
   </si>
   <si>
-    <t xml:space="preserve">-3.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0149</t>
+    <t xml:space="preserve">-4.08</t>
   </si>
   <si>
     <t xml:space="preserve">AIDS</t>
   </si>
   <si>
-    <t xml:space="preserve">-3.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0992</t>
+    <t xml:space="preserve">-3.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.079</t>
   </si>
   <si>
     <t xml:space="preserve">Gonorrhea</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6881</t>
+    <t xml:space="preserve">-0.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99</t>
   </si>
   <si>
     <t xml:space="preserve">HBV</t>
   </si>
   <si>
-    <t xml:space="preserve">-2.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2163</t>
+    <t xml:space="preserve">-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.578</t>
   </si>
   <si>
     <t xml:space="preserve">HCV</t>
   </si>
   <si>
-    <t xml:space="preserve">-2.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4713</t>
+    <t xml:space="preserve">-1.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7048</t>
   </si>
   <si>
     <t xml:space="preserve">Syphilis</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887</t>
+    <t xml:space="preserve">-2.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4177</t>
   </si>
   <si>
     <t xml:space="preserve">Pertussis</t>
   </si>
   <si>
-    <t xml:space="preserve">-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16</t>
+    <t xml:space="preserve">-0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9508</t>
   </si>
   <si>
     <t xml:space="preserve">Scarlet fever</t>
   </si>
   <si>
-    <t xml:space="preserve">-2.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4206</t>
+    <t xml:space="preserve">-1.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6293</t>
   </si>
   <si>
     <t xml:space="preserve">Tuberculosis</t>
   </si>
   <si>
-    <t xml:space="preserve">-2.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.405</t>
+    <t xml:space="preserve">-1.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6248</t>
   </si>
   <si>
     <t xml:space="preserve">Mumps</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5853</t>
+    <t xml:space="preserve">0.6318</t>
   </si>
   <si>
     <t xml:space="preserve">Rubella</t>
   </si>
   <si>
-    <t xml:space="preserve">-4.19</t>
+    <t xml:space="preserve">-3.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0458</t>
   </si>
 </sst>
 </file>
@@ -685,15 +679,15 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
         <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -701,134 +695,134 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
         <v>39</v>
       </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
         <v>42</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
         <v>45</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
         <v>48</v>
-      </c>
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
         <v>51</v>
-      </c>
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
         <v>54</v>
-      </c>
-      <c r="B20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
         <v>57</v>
-      </c>
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
         <v>60</v>
-      </c>
-      <c r="B22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
         <v>63</v>
-      </c>
-      <c r="B23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
